--- a/biology/Zoologie/Gerbillus_garamantis/Gerbillus_garamantis.xlsx
+++ b/biology/Zoologie/Gerbillus_garamantis/Gerbillus_garamantis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gerbillus garamantis ou Gerbillus (Hendecapleura) garamantis est une espèce qui fait partie des rongeurs. C'est une gerbille de la famille des Muridés que l'on rencontre au nord ouest de l'Afrique et aussi du Moyen-Orient jusqu'au nord ouest de l'Inde.
 </t>
